--- a/uploads/アラートリスト.xlsx
+++ b/uploads/アラートリスト.xlsx
@@ -602,7 +602,7 @@
         <v>45901</v>
       </c>
       <c r="S2" t="n">
-        <v>-23</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="3">
@@ -673,7 +673,7 @@
         <v>45962</v>
       </c>
       <c r="S3" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -744,7 +744,7 @@
         <v>45973</v>
       </c>
       <c r="S4" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>45993</v>
       </c>
       <c r="S5" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/アラートリスト.xlsx
+++ b/uploads/アラートリスト.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,7 +530,7 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>満了年月日までの残り日数</t>
+          <t>特技1号在留期限</t>
         </is>
       </c>
     </row>
@@ -584,48 +584,48 @@
         <v>1827</v>
       </c>
       <c r="M2" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N2" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>45841</v>
+        <v>45751</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>45871</v>
+        <v>45781</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>45901</v>
+        <v>45811</v>
       </c>
       <c r="S2" t="n">
-        <v>-27</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4002</v>
+        <v>1112</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1bbbbb</t>
+          <t>xxxx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>bbbbb2</t>
+          <t>xxxxxxxx</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>IDN111111112</t>
+          <t>CCCCCC333333</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>34583</v>
+        <v>34094</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -634,78 +634,72 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5期</t>
+          <t>4期</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>特定技能1号</t>
+          <t>技能実習2号</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>45627</v>
+        <v>45240</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>45992</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1461</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1827</v>
-      </c>
+        <v>45971</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N3" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O3" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>45902</v>
+        <v>45791</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>45932</v>
+        <v>45821</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>45962</v>
-      </c>
-      <c r="S3" t="n">
-        <v>34</v>
-      </c>
+        <v>45851</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1111</v>
+        <v>4002</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vvvvvvv</t>
+          <t>1bbbbb</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>vvvvvvvvvvvvv</t>
+          <t>bbbbb2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AAAAAA111111</t>
+          <t>IDN111111112</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>34700</v>
+        <v>34583</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ベトナム</t>
+          <t>フィリピン</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2期</t>
+          <t>5期</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -714,109 +708,316 @@
         </is>
       </c>
       <c r="I4" s="2" t="n">
-        <v>45638</v>
+        <v>45627</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>46003</v>
+        <v>45992</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1461</v>
       </c>
       <c r="L4" t="n">
-        <v>366</v>
+        <v>1827</v>
       </c>
       <c r="M4" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N4" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O4" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>45913</v>
+        <v>45812</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>45943</v>
+        <v>45842</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>45973</v>
+        <v>45872</v>
       </c>
       <c r="S4" t="n">
-        <v>45</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>vvvvvvv</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vvvvvvvvvvvvv</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AAAAAA111111</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>34700</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ベトナム</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2期</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>特定技能1号</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>366</v>
+      </c>
+      <c r="M5" t="n">
+        <v>180</v>
+      </c>
+      <c r="N5" t="n">
+        <v>150</v>
+      </c>
+      <c r="O5" t="n">
+        <v>120</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>45823</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>4003</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>1ccccc</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>ccccc2</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>IDN111111113</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E6" s="2" t="n">
         <v>34584</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>フィリピン</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>6期</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>特定技能1号</t>
         </is>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I6" s="2" t="n">
         <v>45658</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J6" s="2" t="n">
         <v>46023</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K6" t="n">
         <v>1461</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L6" t="n">
         <v>1827</v>
       </c>
-      <c r="M5" t="n">
-        <v>90</v>
-      </c>
-      <c r="N5" t="n">
-        <v>60</v>
-      </c>
-      <c r="O5" t="n">
-        <v>30</v>
-      </c>
-      <c r="P5" s="2" t="n">
+      <c r="M6" t="n">
+        <v>180</v>
+      </c>
+      <c r="N6" t="n">
+        <v>150</v>
+      </c>
+      <c r="O6" t="n">
+        <v>120</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>45843</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>211</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>グエン・ティ・ハン</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NGYUEN TY HA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VN0030000000</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>35774</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ベトナム</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1期</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>特定技能1号</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>46054</v>
+      </c>
+      <c r="K7" t="n">
+        <v>365</v>
+      </c>
+      <c r="L7" t="n">
+        <v>550</v>
+      </c>
+      <c r="M7" t="n">
+        <v>180</v>
+      </c>
+      <c r="N7" t="n">
+        <v>150</v>
+      </c>
+      <c r="O7" t="n">
+        <v>120</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>45934</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>55</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>山田太郎</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>YAMADA TARO</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>JP0010000000</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>34804</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1期</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>技能実習1号ロ</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>46113</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>180</v>
+      </c>
+      <c r="N8" t="n">
+        <v>150</v>
+      </c>
+      <c r="O8" t="n">
+        <v>120</v>
+      </c>
+      <c r="P8" s="2" t="n">
         <v>45933</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q8" s="2" t="n">
         <v>45963</v>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="R8" s="2" t="n">
         <v>45993</v>
       </c>
-      <c r="S5" t="n">
-        <v>65</v>
-      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploads/アラートリスト.xlsx
+++ b/uploads/アラートリスト.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,7 +530,7 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>特技1号在留期限</t>
+          <t>満了年月日までの残り日数</t>
         </is>
       </c>
     </row>
@@ -584,48 +584,48 @@
         <v>1827</v>
       </c>
       <c r="M2" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N2" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O2" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>45751</v>
+        <v>45841</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>45781</v>
+        <v>45871</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>45811</v>
+        <v>45901</v>
       </c>
       <c r="S2" t="n">
-        <v>1703</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1112</v>
+        <v>4002</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>xxxx</t>
+          <t>1bbbbb</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>xxxxxxxx</t>
+          <t>bbbbb2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CCCCCC333333</t>
+          <t>IDN111111112</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>34094</v>
+        <v>34583</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -634,72 +634,78 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4期</t>
+          <t>5期</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>技能実習2号</t>
+          <t>特定技能1号</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>45240</v>
+        <v>45627</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>45971</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>45992</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1461</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1827</v>
+      </c>
       <c r="M3" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N3" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O3" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>45791</v>
+        <v>45902</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>45821</v>
+        <v>45932</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>45851</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
+        <v>45962</v>
+      </c>
+      <c r="S3" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4002</v>
+        <v>1111</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1bbbbb</t>
+          <t>vvvvvvv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>bbbbb2</t>
+          <t>vvvvvvvvvvvvv</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>IDN111111112</t>
+          <t>AAAAAA111111</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>34583</v>
+        <v>34700</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>フィリピン</t>
+          <t>ベトナム</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5期</t>
+          <t>2期</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -708,69 +714,69 @@
         </is>
       </c>
       <c r="I4" s="2" t="n">
-        <v>45627</v>
+        <v>45638</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>45992</v>
+        <v>46003</v>
       </c>
       <c r="K4" t="n">
-        <v>1461</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1827</v>
+        <v>366</v>
       </c>
       <c r="M4" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N4" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O4" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>45812</v>
+        <v>45913</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>45842</v>
+        <v>45943</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>45872</v>
+        <v>45973</v>
       </c>
       <c r="S4" t="n">
-        <v>1703</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1111</v>
+        <v>4003</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vvvvvvv</t>
+          <t>1ccccc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>vvvvvvvvvvvvv</t>
+          <t>ccccc2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AAAAAA111111</t>
+          <t>IDN111111113</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>34700</v>
+        <v>34584</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ベトナム</t>
+          <t>フィリピン</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2期</t>
+          <t>6期</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -779,245 +785,38 @@
         </is>
       </c>
       <c r="I5" s="2" t="n">
-        <v>45638</v>
+        <v>45658</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>46003</v>
+        <v>46023</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1461</v>
       </c>
       <c r="L5" t="n">
-        <v>366</v>
+        <v>1827</v>
       </c>
       <c r="M5" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O5" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>45823</v>
+        <v>45933</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>45853</v>
+        <v>45963</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>45883</v>
+        <v>45993</v>
       </c>
       <c r="S5" t="n">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4003</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1ccccc</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ccccc2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>IDN111111113</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>34584</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>フィリピン</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>6期</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>特定技能1号</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>45658</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>46023</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1461</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1827</v>
-      </c>
-      <c r="M6" t="n">
-        <v>180</v>
-      </c>
-      <c r="N6" t="n">
-        <v>150</v>
-      </c>
-      <c r="O6" t="n">
-        <v>120</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>45843</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>45873</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>45903</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>211</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>グエン・ティ・ハン</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NGYUEN TY HA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VN0030000000</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>35774</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1期</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>特定技能1号</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>46054</v>
-      </c>
-      <c r="K7" t="n">
-        <v>365</v>
-      </c>
-      <c r="L7" t="n">
-        <v>550</v>
-      </c>
-      <c r="M7" t="n">
-        <v>180</v>
-      </c>
-      <c r="N7" t="n">
-        <v>150</v>
-      </c>
-      <c r="O7" t="n">
-        <v>120</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>45874</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>45904</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>45934</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>55</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>山田太郎</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>YAMADA TARO</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>JP0010000000</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>34804</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>日本</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1期</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>技能実習1号ロ</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>45748</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>46113</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>180</v>
-      </c>
-      <c r="N8" t="n">
-        <v>150</v>
-      </c>
-      <c r="O8" t="n">
-        <v>120</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>45933</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>45963</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>45993</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
